--- a/questionnaires/categories/improvements_levels.xlsx
+++ b/questionnaires/categories/improvements_levels.xlsx
@@ -1,98 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1952D7-D63A-415B-8AC3-D03CB869B038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>Seeds irradiation capacities</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Mutated lines</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Mutated varieties</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Farmer's distributions</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Commercialization</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>No capacity</t>
-  </si>
-  <si>
-    <t>901</t>
-  </si>
-  <si>
-    <t>Initial capacity</t>
-  </si>
-  <si>
-    <t>902</t>
-  </si>
-  <si>
-    <t>Developing capacities</t>
-  </si>
-  <si>
-    <t>903</t>
-  </si>
-  <si>
-    <t>Established capacities</t>
-  </si>
-  <si>
-    <t>904</t>
-  </si>
-  <si>
-    <t>Advanced capacities</t>
-  </si>
-  <si>
-    <t>905</t>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing capacities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Established capacities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional reference/leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeds irradiation capacities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutated lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutated varieties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmer's distributions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -128,15 +121,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -418,14 +402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -441,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -449,7 +433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -457,7 +441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -465,7 +449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -473,7 +457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -481,7 +465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -489,7 +473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -497,7 +481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -505,7 +489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -515,6 +499,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>